--- a/GameData/技能分配简表/战技/战技：弓熟练度对应职业技能列表.xlsx
+++ b/GameData/技能分配简表/战技/战技：弓熟练度对应职业技能列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\FE8U-cSkillSystem\Readme-Files\战技\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\FE8U-cSkillSystem\GameData\技能分配简表\战技\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CEEA50-8733-40A9-A3BF-1A7C22B4FFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7666BF-A7D0-4E8A-82C5-397E76A61D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="3540" windowWidth="16200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>职业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,24 +91,6 @@
   </si>
   <si>
     <t>猎箭齐发</t>
-  </si>
-  <si>
-    <t>贤者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法射击</t>
-  </si>
-  <si>
-    <t>德鲁伊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封魔矢+</t>
   </si>
 </sst>
 </file>
@@ -433,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -498,33 +480,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
